--- a/Vinothini/Time.Sheet(July).xlsx
+++ b/Vinothini/Time.Sheet(July).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC2283-0E0C-46DA-992E-DDF480249519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB3B49-FAB4-435A-B02C-1FE2606A3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB475846-98B5-44EF-B41B-D78D2DA4EC82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>learn  jbpm basic and Interview Qusetion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Java </t>
+  </si>
+  <si>
+    <t>Core Javaconcepts Review and study in interview qusetion</t>
+  </si>
+  <si>
+    <t>JPBM Desing flow Testing</t>
+  </si>
+  <si>
+    <t>Java session</t>
+  </si>
+  <si>
+    <t>Core java discussion</t>
+  </si>
+  <si>
+    <t>JBPM (VMS) project work flow discussion</t>
+  </si>
+  <si>
+    <t>Java (Upload and download File format)</t>
   </si>
 </sst>
 </file>
@@ -400,21 +421,12 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -442,6 +454,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158855FF-0C83-4795-BE01-2AF0CC96CF5F}">
   <dimension ref="B2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,1024 +788,1074 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="24.88671875" customWidth="1"/>
     <col min="5" max="5" width="43.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>44378</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>44378</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>44378</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>44379</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>44379</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>44379</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>44382</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>44382</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>44382</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>44383</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>44383</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>44383</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>44384</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>44384</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>44384</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>44385</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>44385</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>44385</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>19</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>44385</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>44386</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>21</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>44386</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>44387</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>23</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>44387</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>44389</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>25</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>44389</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
-        <v>26</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="3">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6">
         <v>44390</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>27</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>44390</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>28</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>44390</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>29</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>44391</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>30</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>44391</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>31</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>44391</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>32</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>44392</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>33</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>44392</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>34</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="10">
         <v>44393</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>35</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="10">
         <v>44393</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>36</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>44393</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>37</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="10">
         <v>44394</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>38</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="10">
         <v>44396</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>39</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>44396</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>40</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>44397</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>41</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="10">
         <v>44397</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>42</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="10">
         <v>44398</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>43</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="10">
         <v>44398</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>44</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="10">
         <v>44399</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>45</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="10">
         <v>44399</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>46</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="10">
         <v>44400</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>47</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="10">
         <v>44400</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>48</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <v>44403</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>49</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="13">
         <v>44404</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>50</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>51</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="12">
+      <c r="B56" s="9">
         <v>52</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="18"/>
+    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="9">
+        <v>53</v>
+      </c>
+      <c r="C57" s="13">
+        <v>44406</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="15">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="18"/>
+      <c r="B58" s="9">
+        <v>54</v>
+      </c>
+      <c r="C58" s="13">
+        <v>44406</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="18"/>
+      <c r="B59" s="9">
+        <v>55</v>
+      </c>
+      <c r="C59" s="13">
+        <v>44407</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="18"/>
+      <c r="B60" s="9">
+        <v>56</v>
+      </c>
+      <c r="C60" s="13">
+        <v>44407</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="9">
+        <v>57</v>
+      </c>
+      <c r="C61" s="13">
+        <v>44407</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="18"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="18"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="18"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="18"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="18"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F69" s="17"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F70" s="17"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F71" s="17"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F72" s="17"/>
+      <c r="F72" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
